--- a/data files/growth_measurements_millimetre_manipulated.xlsx
+++ b/data files/growth_measurements_millimetre_manipulated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbert\Google Drive\PhD\THESIS\CH1\installation and demo script\data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbert\Google Drive\PhD\Experiments\20161130 Kinematic\1. Data and analysis\Analysis files\analysis using leafkin\data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192DC29D-967B-4072-B698-BBD45620D0A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8A77C-CA02-4F87-A340-716C3D56B56E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{35BCA634-6754-C445-B089-259C469BB48B}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,10 +513,10 @@
         <v>42717.416666666664</v>
       </c>
       <c r="C1" s="1">
-        <v>42718.35833333333</v>
+        <v>42718.390972222223</v>
       </c>
       <c r="D1" s="1">
-        <v>42719.461805555555</v>
+        <v>42719.344444444447</v>
       </c>
       <c r="E1" s="1">
         <v>42720.416666608799</v>
@@ -915,8 +915,11 @@
       <c r="C12">
         <v>151</v>
       </c>
-      <c r="F12">
-        <v>382</v>
+      <c r="D12">
+        <v>221</v>
+      </c>
+      <c r="G12">
+        <v>462</v>
       </c>
       <c r="H12">
         <v>543</v>
